--- a/docs/User Stories.xlsx
+++ b/docs/User Stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f597c273561b2659/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shatlin\MM\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{396F127E-7711-43B6-A254-D1293361964A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D3D290AB-9440-4A12-8E02-05B6947A57DC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5E5130-C4A1-420B-B3C9-8704DB9BAD17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CEDBE567-FEB6-4DE0-879B-8668C6618CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{CEDBE567-FEB6-4DE0-879B-8668C6618CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="MM-User Stories" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="231">
   <si>
     <t>As</t>
   </si>
@@ -744,6 +744,12 @@
   </si>
   <si>
     <t>Requirements review and finalization</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -1238,26 +1244,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C614F1D-E223-4A3C-83EB-BBDFC5B39313}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="24" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="23" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="25" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>186</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1302,8 +1308,11 @@
       <c r="G2" s="21">
         <v>43997</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -1325,8 +1334,11 @@
       <c r="G3" s="21">
         <v>43997</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -1348,8 +1360,11 @@
       <c r="G4" s="21">
         <v>43997</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -1371,8 +1386,11 @@
       <c r="G5" s="21">
         <v>43997</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -1394,8 +1412,11 @@
       <c r="G6" s="21">
         <v>43997</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H6" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -1417,8 +1438,11 @@
       <c r="G7" s="6">
         <v>44012</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>2</v>
       </c>
@@ -1440,8 +1464,11 @@
       <c r="G8" s="9">
         <v>44012</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>2</v>
       </c>
@@ -1463,8 +1490,11 @@
       <c r="G9" s="9">
         <v>44012</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H9" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -1486,8 +1516,11 @@
       <c r="G10" s="9">
         <v>44012</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -1509,8 +1542,11 @@
       <c r="G11" s="9">
         <v>44012</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H11" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
@@ -1532,8 +1568,11 @@
       <c r="G12" s="20">
         <v>44027</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H12" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>3</v>
       </c>
@@ -1555,8 +1594,11 @@
       <c r="G13" s="20">
         <v>44027</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H13" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>3</v>
       </c>
@@ -1578,8 +1620,11 @@
       <c r="G14" s="20">
         <v>44027</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>3</v>
       </c>
@@ -1601,8 +1646,11 @@
       <c r="G15" s="20">
         <v>44027</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H15" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>3</v>
       </c>
@@ -1624,8 +1672,11 @@
       <c r="G16" s="20">
         <v>44027</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H16" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>3</v>
       </c>
@@ -1648,7 +1699,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="28" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>3</v>
       </c>
@@ -1670,8 +1721,11 @@
       <c r="G18" s="20">
         <v>44027</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>3</v>
       </c>
@@ -1694,7 +1748,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>4</v>
       </c>
@@ -1717,7 +1771,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>4</v>
       </c>
@@ -1740,7 +1794,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>4</v>
       </c>
@@ -1763,7 +1817,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>4</v>
       </c>
@@ -1786,7 +1840,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>4</v>
       </c>
@@ -1809,7 +1863,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>4</v>
       </c>
@@ -1832,7 +1886,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>4</v>
       </c>
@@ -1855,7 +1909,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>4</v>
       </c>
@@ -1878,7 +1932,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>5</v>
       </c>
@@ -1901,7 +1955,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>5</v>
       </c>
@@ -1924,7 +1978,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>5</v>
       </c>
@@ -1947,7 +2001,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>5</v>
       </c>
@@ -1970,7 +2024,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>5</v>
       </c>
@@ -4025,18 +4079,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4198,18 +4252,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B599235-D259-48CA-BFCE-72F3034BAC9C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C49208D-FDB4-41EF-89E8-77AABDEACE4A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C49208D-FDB4-41EF-89E8-77AABDEACE4A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B599235-D259-48CA-BFCE-72F3034BAC9C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
